--- a/biology/Biochimie/Ptéridine/Ptéridine.xlsx
+++ b/biology/Biochimie/Ptéridine/Ptéridine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ridine</t>
+          <t>Ptéridine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La ptéridine est un composé aromatique bicylclique, composé d'un noyau de pyrazine fusionné avec un cycle de pyrimidine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ridine</t>
+          <t>Ptéridine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ptéridines sont identifiées pour la première fois dans les années 1930 par le chimiste allemand Heinrich Otto Wieland dans l'aile des papillons qui leur donnent leur nom en référence au grec pteron, aile (Leucoptérine, xanthoptérine)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ptéridines sont identifiées pour la première fois dans les années 1930 par le chimiste allemand Heinrich Otto Wieland dans l'aile des papillons qui leur donnent leur nom en référence au grec pteron, aile (Leucoptérine, xanthoptérine).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pt%C3%A9ridine</t>
+          <t>Ptéridine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ptéridines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle ptéridines les dérivés substitués de la ptéridine. Ces composés jouent de nombreux rôles dans la coloration au sein de leur monde biologique.
 Les ptéridines sont les pigments rouge-jaune des yeux composés des arthropodes.
